--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Col18a1</t>
   </si>
   <si>
     <t>Gpc1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H2">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I2">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J2">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N2">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O2">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P2">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q2">
-        <v>8.797411515460668</v>
+        <v>33.77014761193912</v>
       </c>
       <c r="R2">
-        <v>79.17670363914601</v>
+        <v>303.931328507452</v>
       </c>
       <c r="S2">
-        <v>0.002795624859045468</v>
+        <v>0.01938140912690468</v>
       </c>
       <c r="T2">
-        <v>0.002795624859045468</v>
+        <v>0.01938140912690468</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H3">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I3">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J3">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N3">
         <v>18.956886</v>
       </c>
       <c r="O3">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P3">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q3">
-        <v>178.5031084898446</v>
+        <v>156.5205792113253</v>
       </c>
       <c r="R3">
-        <v>1606.527976408602</v>
+        <v>1408.685212901928</v>
       </c>
       <c r="S3">
-        <v>0.05672438155633656</v>
+        <v>0.08983050406928902</v>
       </c>
       <c r="T3">
-        <v>0.05672438155633654</v>
+        <v>0.08983050406928904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H4">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I4">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J4">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N4">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O4">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P4">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q4">
-        <v>41.37519214609822</v>
+        <v>65.19609709094843</v>
       </c>
       <c r="R4">
-        <v>372.376729314884</v>
+        <v>586.7648738185359</v>
       </c>
       <c r="S4">
-        <v>0.01314813061866393</v>
+        <v>0.03741743286755254</v>
       </c>
       <c r="T4">
-        <v>0.01314813061866393</v>
+        <v>0.03741743286755255</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H5">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I5">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J5">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N5">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O5">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P5">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q5">
-        <v>1108.847987502414</v>
+        <v>520.3168522636488</v>
       </c>
       <c r="R5">
-        <v>9979.631887521728</v>
+        <v>4682.851670372839</v>
       </c>
       <c r="S5">
-        <v>0.3523676246491879</v>
+        <v>0.2986209567464173</v>
       </c>
       <c r="T5">
-        <v>0.3523676246491879</v>
+        <v>0.2986209567464173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H6">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I6">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J6">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N6">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O6">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P6">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q6">
-        <v>66.32220854883944</v>
+        <v>66.81186783027776</v>
       </c>
       <c r="R6">
-        <v>596.899876939555</v>
+        <v>601.3068104724999</v>
       </c>
       <c r="S6">
-        <v>0.02107574649657895</v>
+        <v>0.03834475821164289</v>
       </c>
       <c r="T6">
-        <v>0.02107574649657895</v>
+        <v>0.03834475821164289</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.24880233333333</v>
+        <v>24.76998266666666</v>
       </c>
       <c r="H7">
-        <v>84.746407</v>
+        <v>74.30994799999999</v>
       </c>
       <c r="I7">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045941</v>
       </c>
       <c r="J7">
-        <v>0.4537768084967884</v>
+        <v>0.5176009234045942</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N7">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O7">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P7">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q7">
-        <v>24.12154873349144</v>
+        <v>59.25178013727999</v>
       </c>
       <c r="R7">
-        <v>217.093938601423</v>
+        <v>533.2660212355199</v>
       </c>
       <c r="S7">
-        <v>0.007665300316975597</v>
+        <v>0.03400586238278769</v>
       </c>
       <c r="T7">
-        <v>0.007665300316975597</v>
+        <v>0.0340058623827877</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>24.205355</v>
       </c>
       <c r="I8">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J8">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N8">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O8">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P8">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q8">
-        <v>2.512725628743333</v>
+        <v>11.00012089026611</v>
       </c>
       <c r="R8">
-        <v>22.61453065869</v>
+        <v>99.001088012395</v>
       </c>
       <c r="S8">
-        <v>0.0007984892168941218</v>
+        <v>0.006313204368235703</v>
       </c>
       <c r="T8">
-        <v>0.0007984892168941217</v>
+        <v>0.006313204368235703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>24.205355</v>
       </c>
       <c r="I9">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J9">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N9">
         <v>18.956886</v>
       </c>
       <c r="O9">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P9">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q9">
         <v>50.98423948050333</v>
@@ -1013,10 +1013,10 @@
         <v>458.8581553245299</v>
       </c>
       <c r="S9">
-        <v>0.01620167557931487</v>
+        <v>0.02926094418510541</v>
       </c>
       <c r="T9">
-        <v>0.01620167557931487</v>
+        <v>0.02926094418510542</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>24.205355</v>
       </c>
       <c r="I10">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J10">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N10">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O10">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P10">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q10">
-        <v>11.81762448158444</v>
+        <v>21.23665427273444</v>
       </c>
       <c r="R10">
-        <v>106.35862033426</v>
+        <v>191.12988845461</v>
       </c>
       <c r="S10">
-        <v>0.00375538244602075</v>
+        <v>0.01218816955366161</v>
       </c>
       <c r="T10">
-        <v>0.003755382446020749</v>
+        <v>0.01218816955366161</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>24.205355</v>
       </c>
       <c r="I11">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J11">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N11">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O11">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P11">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q11">
-        <v>316.7102904850172</v>
+        <v>169.4854384977389</v>
       </c>
       <c r="R11">
-        <v>2850.392614365155</v>
+        <v>1525.36894647965</v>
       </c>
       <c r="S11">
-        <v>0.1006435994996265</v>
+        <v>0.0972713137746601</v>
       </c>
       <c r="T11">
-        <v>0.1006435994996265</v>
+        <v>0.09727131377466013</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>24.205355</v>
       </c>
       <c r="I12">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J12">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N12">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O12">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P12">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q12">
-        <v>18.94301669106389</v>
+        <v>21.76296744340278</v>
       </c>
       <c r="R12">
-        <v>170.487150219575</v>
+        <v>195.866706990625</v>
       </c>
       <c r="S12">
-        <v>0.006019676159718484</v>
+        <v>0.01249023192563641</v>
       </c>
       <c r="T12">
-        <v>0.006019676159718484</v>
+        <v>0.01249023192563641</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>24.205355</v>
       </c>
       <c r="I13">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614157</v>
       </c>
       <c r="J13">
-        <v>0.129608193777841</v>
+        <v>0.1686007652614158</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N13">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O13">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P13">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q13">
-        <v>6.889621293843888</v>
+        <v>19.3003818628</v>
       </c>
       <c r="R13">
-        <v>62.006591644595</v>
+        <v>173.7034367652</v>
       </c>
       <c r="S13">
-        <v>0.002189370876266257</v>
+        <v>0.01107690145411651</v>
       </c>
       <c r="T13">
-        <v>0.002189370876266257</v>
+        <v>0.01107690145411651</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H14">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I14">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J14">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N14">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O14">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P14">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q14">
-        <v>0.02002759844266667</v>
+        <v>0.02067701549455556</v>
       </c>
       <c r="R14">
-        <v>0.180248385984</v>
+        <v>0.186093139451</v>
       </c>
       <c r="S14">
-        <v>6.364332505635596E-06</v>
+        <v>1.186698090362055E-05</v>
       </c>
       <c r="T14">
-        <v>6.364332505635596E-06</v>
+        <v>1.186698090362055E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H15">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I15">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J15">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N15">
         <v>18.956886</v>
       </c>
       <c r="O15">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P15">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q15">
-        <v>0.4063682335786666</v>
+        <v>0.09583548401266666</v>
       </c>
       <c r="R15">
-        <v>3.657314102207999</v>
+        <v>0.862519356114</v>
       </c>
       <c r="S15">
-        <v>0.0001291349317605984</v>
+        <v>5.500203155368352E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001291349317605984</v>
+        <v>5.500203155368353E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H16">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I16">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J16">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N16">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O16">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P16">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q16">
-        <v>0.09419199412622221</v>
+        <v>0.03991870942422222</v>
       </c>
       <c r="R16">
-        <v>0.847727947136</v>
+        <v>0.3592683848179999</v>
       </c>
       <c r="S16">
-        <v>2.993215445697413E-05</v>
+        <v>2.291020009919497E-05</v>
       </c>
       <c r="T16">
-        <v>2.993215445697413E-05</v>
+        <v>2.291020009919498E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H17">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I17">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J17">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N17">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O17">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P17">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q17">
-        <v>2.524329138023111</v>
+        <v>0.3185831385744444</v>
       </c>
       <c r="R17">
-        <v>22.718962242208</v>
+        <v>2.86724824717</v>
       </c>
       <c r="S17">
-        <v>0.0008021765582146568</v>
+        <v>0.0001828416689378553</v>
       </c>
       <c r="T17">
-        <v>0.0008021765582146568</v>
+        <v>0.0001828416689378553</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H18">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I18">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J18">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N18">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O18">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P18">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q18">
-        <v>0.1509847025244444</v>
+        <v>0.04090802451388888</v>
       </c>
       <c r="R18">
-        <v>1.35886232272</v>
+        <v>0.368172220625</v>
       </c>
       <c r="S18">
-        <v>4.79796343471173E-05</v>
+        <v>2.347798916332898E-05</v>
       </c>
       <c r="T18">
-        <v>4.79796343471173E-05</v>
+        <v>2.347798916332898E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06430933333333333</v>
+        <v>0.01516633333333333</v>
       </c>
       <c r="H19">
-        <v>0.192928</v>
+        <v>0.045499</v>
       </c>
       <c r="I19">
-        <v>0.001033037921119988</v>
+        <v>0.0003169202111941409</v>
       </c>
       <c r="J19">
-        <v>0.001033037921119988</v>
+        <v>0.000316920211194141</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N19">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O19">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P19">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q19">
-        <v>0.05491350393244444</v>
+        <v>0.03627908263999999</v>
       </c>
       <c r="R19">
-        <v>0.4942215353919999</v>
+        <v>0.32651174376</v>
       </c>
       <c r="S19">
-        <v>1.745030983500537E-05</v>
+        <v>2.082134053645761E-05</v>
       </c>
       <c r="T19">
-        <v>1.745030983500537E-05</v>
+        <v>2.082134053645762E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H20">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I20">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J20">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N20">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O20">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P20">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q20">
-        <v>8.015451349208668</v>
+        <v>19.624795400869</v>
       </c>
       <c r="R20">
-        <v>72.139062142878</v>
+        <v>176.623158607821</v>
       </c>
       <c r="S20">
-        <v>0.002547135030450364</v>
+        <v>0.01126308931387579</v>
       </c>
       <c r="T20">
-        <v>0.002547135030450363</v>
+        <v>0.01126308931387579</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H21">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I21">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J21">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N21">
         <v>18.956886</v>
       </c>
       <c r="O21">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P21">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q21">
-        <v>162.6368141661206</v>
+        <v>90.95857022436599</v>
       </c>
       <c r="R21">
-        <v>1463.731327495086</v>
+        <v>818.627132019294</v>
       </c>
       <c r="S21">
-        <v>0.05168242043466085</v>
+        <v>0.05220306654784859</v>
       </c>
       <c r="T21">
-        <v>0.05168242043466083</v>
+        <v>0.05220306654784859</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H22">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I22">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J22">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N22">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O22">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P22">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q22">
-        <v>37.69754763982355</v>
+        <v>37.887310444942</v>
       </c>
       <c r="R22">
-        <v>339.277928758412</v>
+        <v>340.985794004478</v>
       </c>
       <c r="S22">
-        <v>0.01197945567531213</v>
+        <v>0.02174433682936765</v>
       </c>
       <c r="T22">
-        <v>0.01197945567531213</v>
+        <v>0.02174433682936766</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H23">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I23">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J23">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N23">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O23">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P23">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q23">
-        <v>1010.287751331607</v>
+        <v>302.3709545672299</v>
       </c>
       <c r="R23">
-        <v>9092.58976198446</v>
+        <v>2721.33859110507</v>
       </c>
       <c r="S23">
-        <v>0.3210473384640675</v>
+        <v>0.1735371502044697</v>
       </c>
       <c r="T23">
-        <v>0.3210473384640675</v>
+        <v>0.1735371502044697</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H24">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I24">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J24">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N24">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O24">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P24">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q24">
-        <v>60.42714212709611</v>
+        <v>38.826280879375</v>
       </c>
       <c r="R24">
-        <v>543.844279143865</v>
+        <v>349.4365279143749</v>
       </c>
       <c r="S24">
-        <v>0.01920242339405191</v>
+        <v>0.02228323202037889</v>
       </c>
       <c r="T24">
-        <v>0.01920242339405191</v>
+        <v>0.02228323202037889</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.73790033333333</v>
+        <v>14.394543</v>
       </c>
       <c r="H25">
-        <v>77.213701</v>
+        <v>43.183629</v>
       </c>
       <c r="I25">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892377</v>
       </c>
       <c r="J25">
-        <v>0.4134427411418784</v>
+        <v>0.3007926508892378</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N25">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O25">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P25">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q25">
-        <v>21.97749872233211</v>
+        <v>34.43289841943999</v>
       </c>
       <c r="R25">
-        <v>197.797488500989</v>
+        <v>309.89608577496</v>
       </c>
       <c r="S25">
-        <v>0.006983968143335668</v>
+        <v>0.01976177597329714</v>
       </c>
       <c r="T25">
-        <v>0.006983968143335668</v>
+        <v>0.01976177597329714</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H26">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I26">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J26">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N26">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O26">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P26">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q26">
-        <v>0.041473223272</v>
+        <v>0.2743795738153334</v>
       </c>
       <c r="R26">
-        <v>0.373259009448</v>
+        <v>2.469416164338</v>
       </c>
       <c r="S26">
-        <v>1.317928276518448E-05</v>
+        <v>0.0001574722988270457</v>
       </c>
       <c r="T26">
-        <v>1.317928276518448E-05</v>
+        <v>0.0001574722988270457</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H27">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I27">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J27">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N27">
         <v>18.956886</v>
       </c>
       <c r="O27">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P27">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q27">
-        <v>0.8415088074639998</v>
+        <v>1.271716378348</v>
       </c>
       <c r="R27">
-        <v>7.573579267175998</v>
+        <v>11.445447405132</v>
       </c>
       <c r="S27">
-        <v>0.0002674130836232544</v>
+        <v>0.0007298651964859685</v>
       </c>
       <c r="T27">
-        <v>0.0002674130836232544</v>
+        <v>0.0007298651964859685</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H28">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I28">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J28">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N28">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O28">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P28">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q28">
-        <v>0.1950531220213333</v>
+        <v>0.5297127374093333</v>
       </c>
       <c r="R28">
-        <v>1.755478098192</v>
+        <v>4.767414636684</v>
       </c>
       <c r="S28">
-        <v>6.198361367988305E-05</v>
+        <v>0.000304013455950464</v>
       </c>
       <c r="T28">
-        <v>6.198361367988305E-05</v>
+        <v>0.000304013455950464</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H29">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I29">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J29">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N29">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O29">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P29">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q29">
-        <v>5.227389906630665</v>
+        <v>4.227530119606667</v>
       </c>
       <c r="R29">
-        <v>47.04650915967599</v>
+        <v>38.04777107646</v>
       </c>
       <c r="S29">
-        <v>0.001661150117306388</v>
+        <v>0.002426269845958316</v>
       </c>
       <c r="T29">
-        <v>0.001661150117306388</v>
+        <v>0.002426269845958316</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H30">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I30">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J30">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N30">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O30">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P30">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q30">
-        <v>0.3126596679266667</v>
+        <v>0.5428407370833334</v>
       </c>
       <c r="R30">
-        <v>2.81393701134</v>
+        <v>4.88556663375</v>
       </c>
       <c r="S30">
-        <v>9.935640029349247E-05</v>
+        <v>0.000311547895409346</v>
       </c>
       <c r="T30">
-        <v>9.935640029349247E-05</v>
+        <v>0.000311547895409346</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.133172</v>
+        <v>0.201254</v>
       </c>
       <c r="H31">
-        <v>0.399516</v>
+        <v>0.603762</v>
       </c>
       <c r="I31">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="J31">
-        <v>0.002139218662372351</v>
+        <v>0.00420546342888848</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N31">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O31">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P31">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q31">
-        <v>0.1137150825026666</v>
+        <v>0.48141566832</v>
       </c>
       <c r="R31">
-        <v>1.023435742524</v>
+        <v>4.33274101488</v>
       </c>
       <c r="S31">
-        <v>3.613616470414872E-05</v>
+        <v>0.0002762947362573403</v>
       </c>
       <c r="T31">
-        <v>3.613616470414872E-05</v>
+        <v>0.0002762947362573403</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H32">
+        <v>1.217911</v>
+      </c>
+      <c r="I32">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J32">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.363349666666667</v>
+      </c>
+      <c r="N32">
+        <v>4.090049</v>
+      </c>
+      <c r="O32">
+        <v>0.03744469580815407</v>
+      </c>
+      <c r="P32">
+        <v>0.03744469580815406</v>
+      </c>
+      <c r="Q32">
+        <v>0.5534795186265556</v>
+      </c>
+      <c r="R32">
+        <v>4.981315667639</v>
+      </c>
+      <c r="S32">
+        <v>0.0003176537194072268</v>
+      </c>
+      <c r="T32">
+        <v>0.0003176537194072267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H33">
+        <v>1.217911</v>
+      </c>
+      <c r="I33">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J33">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>6.318962</v>
+      </c>
+      <c r="N33">
+        <v>18.956886</v>
+      </c>
+      <c r="O33">
+        <v>0.173551668877281</v>
+      </c>
+      <c r="P33">
+        <v>0.173551668877281</v>
+      </c>
+      <c r="Q33">
+        <v>2.565311109460667</v>
+      </c>
+      <c r="R33">
+        <v>23.087799985146</v>
+      </c>
+      <c r="S33">
+        <v>0.001472286846998357</v>
+      </c>
+      <c r="T33">
+        <v>0.001472286846998357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H34">
+        <v>1.217911</v>
+      </c>
+      <c r="I34">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J34">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.632060666666666</v>
+      </c>
+      <c r="N34">
+        <v>7.896182</v>
+      </c>
+      <c r="O34">
+        <v>0.07229012000487563</v>
+      </c>
+      <c r="P34">
+        <v>0.07229012000487563</v>
+      </c>
+      <c r="Q34">
+        <v>1.068538546200222</v>
+      </c>
+      <c r="R34">
+        <v>9.616846915801998</v>
+      </c>
+      <c r="S34">
+        <v>0.0006132570982441516</v>
+      </c>
+      <c r="T34">
+        <v>0.0006132570982441516</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H35">
+        <v>1.217911</v>
+      </c>
+      <c r="I35">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J35">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>21.00594333333333</v>
+      </c>
+      <c r="N35">
+        <v>63.01783</v>
+      </c>
+      <c r="O35">
+        <v>0.5769328129907405</v>
+      </c>
+      <c r="P35">
+        <v>0.5769328129907405</v>
+      </c>
+      <c r="Q35">
+        <v>8.527789817014444</v>
+      </c>
+      <c r="R35">
+        <v>76.75010835312999</v>
+      </c>
+      <c r="S35">
+        <v>0.0048942807502972</v>
+      </c>
+      <c r="T35">
+        <v>0.0048942807502972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H36">
+        <v>1.217911</v>
+      </c>
+      <c r="I36">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J36">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.697291666666667</v>
+      </c>
+      <c r="N36">
+        <v>8.091875</v>
+      </c>
+      <c r="O36">
+        <v>0.07408170364037367</v>
+      </c>
+      <c r="P36">
+        <v>0.07408170364037366</v>
+      </c>
+      <c r="Q36">
+        <v>1.095020397013889</v>
+      </c>
+      <c r="R36">
+        <v>9.855183573125</v>
+      </c>
+      <c r="S36">
+        <v>0.000628455598142798</v>
+      </c>
+      <c r="T36">
+        <v>0.0006284555981427979</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4059703333333333</v>
+      </c>
+      <c r="H37">
+        <v>1.217911</v>
+      </c>
+      <c r="I37">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="J37">
+        <v>0.008483276804669716</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.39208</v>
+      </c>
+      <c r="N37">
+        <v>7.17624</v>
+      </c>
+      <c r="O37">
+        <v>0.06569899867857512</v>
+      </c>
+      <c r="P37">
+        <v>0.06569899867857512</v>
+      </c>
+      <c r="Q37">
+        <v>0.97111351496</v>
+      </c>
+      <c r="R37">
+        <v>8.74002163464</v>
+      </c>
+      <c r="S37">
+        <v>0.0005573427915799826</v>
+      </c>
+      <c r="T37">
+        <v>0.0005573427915799826</v>
       </c>
     </row>
   </sheetData>
